--- a/jr_data.xlsx
+++ b/jr_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanclarke/Desktop/osgoode/papers/irwintoy/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D1B783-6CF0-5342-8506-72F13BA3F8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38256E57-6BB3-7648-996E-5BB09AB4F9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="21220" windowHeight="14500" activeTab="1" xr2:uid="{E47A3FDC-7AD1-4511-9448-90402246D381}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23880" windowHeight="16940" activeTab="1" xr2:uid="{E47A3FDC-7AD1-4511-9448-90402246D381}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7174" uniqueCount="641">
   <si>
     <t>case</t>
   </si>
@@ -1955,6 +1955,12 @@
   <si>
     <t>"3-3-3"</t>
   </si>
+  <si>
+    <t>B.C.G.E.U. v. British Columbia (Attorney General), [1988] 2 S.C.R. 214</t>
+  </si>
+  <si>
+    <t>injunction on labour picketing</t>
+  </si>
 </sst>
 </file>
 
@@ -2335,11 +2341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC629BE-A775-4F8E-9F9C-1908E990AD15}">
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9650,19 +9656,19 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>511</v>
+        <v>639</v>
       </c>
       <c r="B229">
         <v>1988</v>
       </c>
       <c r="C229" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="D229" t="s">
-        <v>513</v>
+        <v>640</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -9674,27 +9680,27 @@
         <v>0</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>156</v>
+        <v>539</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B230">
         <v>1988</v>
       </c>
       <c r="C230" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="D230" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="E230" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -9714,48 +9720,48 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B231">
         <v>1988</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="D231" t="s">
-        <v>516</v>
+        <v>458</v>
       </c>
       <c r="E231" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>518</v>
+        <v>156</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B232">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C232" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
@@ -9773,27 +9779,27 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>348</v>
+        <v>518</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B233">
         <v>1987</v>
       </c>
       <c r="C233" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D233" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
       <c r="E233" t="s">
         <v>9</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -9805,21 +9811,21 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>135</v>
+        <v>348</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B234">
         <v>1987</v>
       </c>
       <c r="C234" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="D234" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
@@ -9834,24 +9840,24 @@
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="B235">
         <v>1987</v>
       </c>
       <c r="C235" t="s">
-        <v>586</v>
+        <v>144</v>
       </c>
       <c r="D235" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
       <c r="E235" t="s">
         <v>9</v>
@@ -9869,27 +9875,27 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="B236">
         <v>1987</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="D236" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="E236" t="s">
         <v>9</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -9898,30 +9904,30 @@
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>526</v>
+        <v>135</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B237">
         <v>1987</v>
       </c>
       <c r="C237" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="D237" t="s">
-        <v>631</v>
+        <v>524</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -9933,12 +9939,12 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B238">
         <v>1987</v>
@@ -9947,7 +9953,7 @@
         <v>131</v>
       </c>
       <c r="D238" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
@@ -9965,12 +9971,12 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="B239">
         <v>1987</v>
@@ -9979,10 +9985,10 @@
         <v>131</v>
       </c>
       <c r="D239" t="s">
-        <v>527</v>
+        <v>630</v>
       </c>
       <c r="E239" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -10002,25 +10008,25 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B240">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C240" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D240" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E240" t="s">
         <v>37</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -10029,56 +10035,56 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B241">
         <v>1986</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D241" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F241">
         <v>1</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>60</v>
+        <v>531</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B242">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D242" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -10093,24 +10099,24 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B243">
         <v>1985</v>
       </c>
       <c r="C243" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -10125,21 +10131,21 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>539</v>
+        <v>135</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B244">
         <v>1985</v>
       </c>
       <c r="C244" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D244" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
@@ -10157,21 +10163,21 @@
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B245">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C245" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E245" t="s">
         <v>9</v>
@@ -10186,27 +10192,27 @@
         <v>0</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>146</v>
+        <v>544</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B246">
         <v>1984</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="D246" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -10221,27 +10227,27 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B247">
         <v>1984</v>
       </c>
       <c r="C247" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D247" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="E247" t="s">
         <v>37</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -10253,6 +10259,38 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>548</v>
+      </c>
+      <c r="B248">
+        <v>1984</v>
+      </c>
+      <c r="C248" t="s">
+        <v>152</v>
+      </c>
+      <c r="D248" t="s">
+        <v>489</v>
+      </c>
+      <c r="E248" t="s">
+        <v>37</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248" t="s">
         <v>156</v>
       </c>
     </row>
@@ -10264,11 +10302,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D51641C-C0B7-473D-8C49-9727ECB88893}">
-  <dimension ref="A1:I1969"/>
+  <dimension ref="A1:I1975"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1082" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1086" sqref="F1086"/>
+      <pane ySplit="1" topLeftCell="A1829" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1847" sqref="E1847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -60925,7 +60963,7 @@
     </row>
     <row r="1841" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1841" t="s">
-        <v>511</v>
+        <v>639</v>
       </c>
       <c r="B1841">
         <v>1988</v>
@@ -60934,7 +60972,7 @@
         <v>439</v>
       </c>
       <c r="D1841" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="E1841">
         <v>1</v>
@@ -60954,16 +60992,16 @@
     </row>
     <row r="1842" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1842" t="s">
-        <v>511</v>
+        <v>639</v>
       </c>
       <c r="B1842">
         <v>1988</v>
       </c>
       <c r="C1842" t="s">
-        <v>478</v>
+        <v>296</v>
       </c>
       <c r="D1842" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="E1842">
         <v>1</v>
@@ -60983,16 +61021,16 @@
     </row>
     <row r="1843" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1843" t="s">
-        <v>511</v>
+        <v>639</v>
       </c>
       <c r="B1843">
         <v>1988</v>
       </c>
       <c r="C1843" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="D1843" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="E1843">
         <v>1</v>
@@ -61012,16 +61050,16 @@
     </row>
     <row r="1844" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1844" t="s">
-        <v>511</v>
+        <v>639</v>
       </c>
       <c r="B1844">
         <v>1988</v>
       </c>
       <c r="C1844" t="s">
-        <v>486</v>
+        <v>322</v>
       </c>
       <c r="D1844" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="E1844">
         <v>1</v>
@@ -61041,16 +61079,16 @@
     </row>
     <row r="1845" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1845" t="s">
-        <v>511</v>
+        <v>639</v>
       </c>
       <c r="B1845">
         <v>1988</v>
       </c>
       <c r="C1845" t="s">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="D1845" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="E1845">
         <v>1</v>
@@ -61070,28 +61108,25 @@
     </row>
     <row r="1846" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1846" t="s">
-        <v>511</v>
+        <v>639</v>
       </c>
       <c r="B1846">
         <v>1988</v>
       </c>
       <c r="C1846" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D1846" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="E1846">
-        <v>1</v>
-      </c>
-      <c r="F1846">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1846">
         <v>1</v>
       </c>
       <c r="H1846">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1846">
         <v>0</v>
@@ -61105,7 +61140,7 @@
         <v>1988</v>
       </c>
       <c r="C1847" t="s">
-        <v>322</v>
+        <v>439</v>
       </c>
       <c r="D1847" t="s">
         <v>512</v>
@@ -61128,16 +61163,16 @@
     </row>
     <row r="1848" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1848" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1848">
         <v>1988</v>
       </c>
       <c r="C1848" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="D1848" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="E1848">
         <v>1</v>
@@ -61157,16 +61192,16 @@
     </row>
     <row r="1849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1849" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1849">
         <v>1988</v>
       </c>
       <c r="C1849" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="D1849" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="E1849">
         <v>1</v>
@@ -61186,16 +61221,16 @@
     </row>
     <row r="1850" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1850" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1850">
         <v>1988</v>
       </c>
       <c r="C1850" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D1850" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="E1850">
         <v>1</v>
@@ -61215,16 +61250,16 @@
     </row>
     <row r="1851" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1851" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1851">
         <v>1988</v>
       </c>
       <c r="C1851" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="D1851" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="E1851">
         <v>1</v>
@@ -61244,16 +61279,16 @@
     </row>
     <row r="1852" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1852" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1852">
         <v>1988</v>
       </c>
       <c r="C1852" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="D1852" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="E1852">
         <v>1</v>
@@ -61273,16 +61308,16 @@
     </row>
     <row r="1853" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1853" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1853">
         <v>1988</v>
       </c>
       <c r="C1853" t="s">
-        <v>479</v>
+        <v>322</v>
       </c>
       <c r="D1853" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="E1853">
         <v>1</v>
@@ -61308,7 +61343,7 @@
         <v>1988</v>
       </c>
       <c r="C1854" t="s">
-        <v>322</v>
+        <v>439</v>
       </c>
       <c r="D1854" t="s">
         <v>459</v>
@@ -61331,22 +61366,22 @@
     </row>
     <row r="1855" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1855" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1855">
         <v>1988</v>
       </c>
       <c r="C1855" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="D1855" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="E1855">
         <v>1</v>
       </c>
       <c r="F1855">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1855">
         <v>1</v>
@@ -61360,22 +61395,22 @@
     </row>
     <row r="1856" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1856" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1856">
         <v>1988</v>
       </c>
       <c r="C1856" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="D1856" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="E1856">
         <v>1</v>
       </c>
       <c r="F1856">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1856">
         <v>1</v>
@@ -61389,28 +61424,28 @@
     </row>
     <row r="1857" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1857" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1857">
         <v>1988</v>
       </c>
       <c r="C1857" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D1857" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="E1857">
         <v>1</v>
       </c>
       <c r="F1857">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1857">
         <v>1</v>
       </c>
       <c r="H1857">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1857">
         <v>0</v>
@@ -61418,28 +61453,28 @@
     </row>
     <row r="1858" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1858" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1858">
         <v>1988</v>
       </c>
       <c r="C1858" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="D1858" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="E1858">
         <v>1</v>
       </c>
       <c r="F1858">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1858">
         <v>1</v>
       </c>
       <c r="H1858">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1858">
         <v>0</v>
@@ -61447,33 +61482,36 @@
     </row>
     <row r="1859" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1859" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1859">
         <v>1988</v>
       </c>
       <c r="C1859" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D1859" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="E1859">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1859">
+        <v>1</v>
       </c>
       <c r="G1859">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1859">
         <v>0</v>
       </c>
       <c r="I1859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1860" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1860" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1860">
         <v>1988</v>
@@ -61482,19 +61520,22 @@
         <v>322</v>
       </c>
       <c r="D1860" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="E1860">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1860">
+        <v>1</v>
       </c>
       <c r="G1860">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1860">
         <v>0</v>
       </c>
       <c r="I1860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1861" spans="1:9" x14ac:dyDescent="0.2">
@@ -61505,7 +61546,7 @@
         <v>1988</v>
       </c>
       <c r="C1861" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D1861" t="s">
         <v>24</v>
@@ -61520,7 +61561,7 @@
         <v>1</v>
       </c>
       <c r="H1861">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1861">
         <v>0</v>
@@ -61528,16 +61569,16 @@
     </row>
     <row r="1862" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1862" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B1862">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C1862" t="s">
-        <v>439</v>
+        <v>296</v>
       </c>
       <c r="D1862" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E1862">
         <v>1</v>
@@ -61557,16 +61598,16 @@
     </row>
     <row r="1863" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1863" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B1863">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C1863" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D1863" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E1863">
         <v>1</v>
@@ -61578,7 +61619,7 @@
         <v>1</v>
       </c>
       <c r="H1863">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1863">
         <v>0</v>
@@ -61586,16 +61627,16 @@
     </row>
     <row r="1864" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1864" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B1864">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C1864" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="D1864" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E1864">
         <v>1</v>
@@ -61607,7 +61648,7 @@
         <v>1</v>
       </c>
       <c r="H1864">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1864">
         <v>0</v>
@@ -61615,74 +61656,68 @@
     </row>
     <row r="1865" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1865" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B1865">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C1865" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="D1865" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E1865">
-        <v>1</v>
-      </c>
-      <c r="F1865">
         <v>0</v>
       </c>
       <c r="G1865">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1865">
         <v>0</v>
       </c>
       <c r="I1865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1866" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1866" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B1866">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C1866" t="s">
-        <v>478</v>
+        <v>322</v>
       </c>
       <c r="D1866" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E1866">
-        <v>1</v>
-      </c>
-      <c r="F1866">
         <v>0</v>
       </c>
       <c r="G1866">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1866">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1867" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1867" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B1867">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C1867" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="D1867" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E1867">
         <v>1</v>
@@ -61708,22 +61743,25 @@
         <v>1987</v>
       </c>
       <c r="C1868" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="D1868" t="s">
         <v>97</v>
       </c>
       <c r="E1868">
+        <v>1</v>
+      </c>
+      <c r="F1868">
         <v>0</v>
       </c>
       <c r="G1868">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1868">
         <v>0</v>
       </c>
       <c r="I1868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1869" spans="1:9" x14ac:dyDescent="0.2">
@@ -61734,7 +61772,7 @@
         <v>1987</v>
       </c>
       <c r="C1869" t="s">
-        <v>322</v>
+        <v>501</v>
       </c>
       <c r="D1869" t="s">
         <v>97</v>
@@ -61749,7 +61787,7 @@
         <v>1</v>
       </c>
       <c r="H1869">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1869">
         <v>0</v>
@@ -61757,18 +61795,21 @@
     </row>
     <row r="1870" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1870" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B1870">
         <v>1987</v>
       </c>
       <c r="C1870" t="s">
-        <v>439</v>
+        <v>296</v>
       </c>
       <c r="D1870" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E1870">
+        <v>1</v>
+      </c>
+      <c r="F1870">
         <v>0</v>
       </c>
       <c r="G1870">
@@ -61783,18 +61824,21 @@
     </row>
     <row r="1871" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1871" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B1871">
         <v>1987</v>
       </c>
       <c r="C1871" t="s">
-        <v>296</v>
+        <v>434</v>
       </c>
       <c r="D1871" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E1871">
+        <v>1</v>
+      </c>
+      <c r="F1871">
         <v>0</v>
       </c>
       <c r="G1871">
@@ -61809,25 +61853,28 @@
     </row>
     <row r="1872" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1872" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B1872">
         <v>1987</v>
       </c>
       <c r="C1872" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D1872" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E1872">
+        <v>1</v>
+      </c>
+      <c r="F1872">
         <v>0</v>
       </c>
       <c r="G1872">
         <v>1</v>
       </c>
       <c r="H1872">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1872">
         <v>0</v>
@@ -61835,7 +61882,7 @@
     </row>
     <row r="1873" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1873" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B1873">
         <v>1987</v>
@@ -61844,16 +61891,19 @@
         <v>479</v>
       </c>
       <c r="D1873" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E1873">
+        <v>1</v>
+      </c>
+      <c r="F1873">
         <v>0</v>
       </c>
       <c r="G1873">
         <v>1</v>
       </c>
       <c r="H1873">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1873">
         <v>0</v>
@@ -61861,42 +61911,42 @@
     </row>
     <row r="1874" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1874" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B1874">
         <v>1987</v>
       </c>
       <c r="C1874" t="s">
-        <v>322</v>
+        <v>486</v>
       </c>
       <c r="D1874" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E1874">
         <v>0</v>
       </c>
       <c r="G1874">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1874">
         <v>0</v>
       </c>
       <c r="I1874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1875" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1875" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B1875">
         <v>1987</v>
       </c>
       <c r="C1875" t="s">
-        <v>501</v>
+        <v>322</v>
       </c>
       <c r="D1875" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E1875">
         <v>1</v>
@@ -61905,13 +61955,13 @@
         <v>0</v>
       </c>
       <c r="G1875">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1875">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1876" spans="1:9" x14ac:dyDescent="0.2">
@@ -61922,39 +61972,36 @@
         <v>1987</v>
       </c>
       <c r="C1876" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D1876" t="s">
         <v>84</v>
       </c>
       <c r="E1876">
-        <v>1</v>
-      </c>
-      <c r="F1876">
         <v>0</v>
       </c>
       <c r="G1876">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1876">
         <v>0</v>
       </c>
       <c r="I1876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1877" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1877" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B1877">
         <v>1987</v>
       </c>
       <c r="C1877" t="s">
-        <v>439</v>
+        <v>296</v>
       </c>
       <c r="D1877" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E1877">
         <v>0</v>
@@ -61971,16 +62018,16 @@
     </row>
     <row r="1878" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1878" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B1878">
         <v>1987</v>
       </c>
       <c r="C1878" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="D1878" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E1878">
         <v>0</v>
@@ -61997,16 +62044,16 @@
     </row>
     <row r="1879" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1879" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B1879">
         <v>1987</v>
       </c>
       <c r="C1879" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D1879" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E1879">
         <v>0</v>
@@ -62023,16 +62070,16 @@
     </row>
     <row r="1880" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1880" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B1880">
         <v>1987</v>
       </c>
       <c r="C1880" t="s">
-        <v>486</v>
+        <v>322</v>
       </c>
       <c r="D1880" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E1880">
         <v>0</v>
@@ -62049,54 +62096,60 @@
     </row>
     <row r="1881" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1881" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B1881">
         <v>1987</v>
       </c>
       <c r="C1881" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="D1881" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E1881">
+        <v>1</v>
+      </c>
+      <c r="F1881">
         <v>0</v>
       </c>
       <c r="G1881">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1881">
         <v>0</v>
       </c>
       <c r="I1881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1882" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1882" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B1882">
         <v>1987</v>
       </c>
       <c r="C1882" t="s">
-        <v>322</v>
+        <v>434</v>
       </c>
       <c r="D1882" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E1882">
+        <v>1</v>
+      </c>
+      <c r="F1882">
         <v>0</v>
       </c>
       <c r="G1882">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1882">
         <v>0</v>
       </c>
       <c r="I1882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1883" spans="1:9" x14ac:dyDescent="0.2">
@@ -62107,39 +62160,36 @@
         <v>1987</v>
       </c>
       <c r="C1883" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
       <c r="D1883" t="s">
         <v>144</v>
       </c>
       <c r="E1883">
-        <v>1</v>
-      </c>
-      <c r="F1883">
         <v>0</v>
       </c>
       <c r="G1883">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1883">
         <v>0</v>
       </c>
       <c r="I1883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1884" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1884" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="B1884">
         <v>1987</v>
       </c>
       <c r="C1884" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D1884" t="s">
-        <v>586</v>
+        <v>144</v>
       </c>
       <c r="E1884">
         <v>0</v>
@@ -62156,16 +62206,16 @@
     </row>
     <row r="1885" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1885" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="B1885">
         <v>1987</v>
       </c>
       <c r="C1885" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D1885" t="s">
-        <v>586</v>
+        <v>144</v>
       </c>
       <c r="E1885">
         <v>0</v>
@@ -62182,7 +62232,7 @@
     </row>
     <row r="1886" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1886" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="B1886">
         <v>1987</v>
@@ -62191,7 +62241,7 @@
         <v>486</v>
       </c>
       <c r="D1886" t="s">
-        <v>586</v>
+        <v>144</v>
       </c>
       <c r="E1886">
         <v>0</v>
@@ -62208,16 +62258,16 @@
     </row>
     <row r="1887" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1887" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="B1887">
         <v>1987</v>
       </c>
       <c r="C1887" t="s">
-        <v>479</v>
+        <v>296</v>
       </c>
       <c r="D1887" t="s">
-        <v>586</v>
+        <v>144</v>
       </c>
       <c r="E1887">
         <v>0</v>
@@ -62234,7 +62284,7 @@
     </row>
     <row r="1888" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1888" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="B1888">
         <v>1987</v>
@@ -62243,7 +62293,7 @@
         <v>322</v>
       </c>
       <c r="D1888" t="s">
-        <v>586</v>
+        <v>144</v>
       </c>
       <c r="E1888">
         <v>0</v>
@@ -62260,16 +62310,16 @@
     </row>
     <row r="1889" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1889" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="B1889">
         <v>1987</v>
       </c>
       <c r="C1889" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="D1889" t="s">
-        <v>586</v>
+        <v>144</v>
       </c>
       <c r="E1889">
         <v>1</v>
@@ -62295,44 +62345,38 @@
         <v>1987</v>
       </c>
       <c r="C1890" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D1890" t="s">
         <v>586</v>
       </c>
       <c r="E1890">
-        <v>1</v>
-      </c>
-      <c r="F1890">
         <v>0</v>
       </c>
       <c r="G1890">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1890">
         <v>0</v>
       </c>
       <c r="I1890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1891" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1891" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="B1891">
         <v>1987</v>
       </c>
       <c r="C1891" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="D1891" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="E1891">
-        <v>1</v>
-      </c>
-      <c r="F1891">
         <v>0</v>
       </c>
       <c r="G1891">
@@ -62347,21 +62391,18 @@
     </row>
     <row r="1892" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1892" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="B1892">
         <v>1987</v>
       </c>
       <c r="C1892" t="s">
-        <v>296</v>
+        <v>486</v>
       </c>
       <c r="D1892" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="E1892">
-        <v>1</v>
-      </c>
-      <c r="F1892">
         <v>0</v>
       </c>
       <c r="G1892">
@@ -62376,54 +62417,51 @@
     </row>
     <row r="1893" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1893" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="B1893">
         <v>1987</v>
       </c>
       <c r="C1893" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D1893" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="E1893">
         <v>0</v>
       </c>
       <c r="G1893">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1893">
         <v>0</v>
       </c>
       <c r="I1893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1894" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1894" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="B1894">
         <v>1987</v>
       </c>
       <c r="C1894" t="s">
-        <v>434</v>
+        <v>322</v>
       </c>
       <c r="D1894" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="E1894">
-        <v>1</v>
-      </c>
-      <c r="F1894">
         <v>0</v>
       </c>
       <c r="G1894">
         <v>1</v>
       </c>
       <c r="H1894">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1894">
         <v>0</v>
@@ -62431,16 +62469,16 @@
     </row>
     <row r="1895" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1895" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="B1895">
         <v>1987</v>
       </c>
       <c r="C1895" t="s">
-        <v>479</v>
+        <v>296</v>
       </c>
       <c r="D1895" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="E1895">
         <v>1</v>
@@ -62449,27 +62487,27 @@
         <v>0</v>
       </c>
       <c r="G1895">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1895">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1896" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1896" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="B1896">
         <v>1987</v>
       </c>
       <c r="C1896" t="s">
-        <v>322</v>
+        <v>434</v>
       </c>
       <c r="D1896" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="E1896">
         <v>1</v>
@@ -62478,18 +62516,18 @@
         <v>0</v>
       </c>
       <c r="G1896">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1896">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1897" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1897" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B1897">
         <v>1987</v>
@@ -62498,7 +62536,7 @@
         <v>439</v>
       </c>
       <c r="D1897" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E1897">
         <v>1</v>
@@ -62507,27 +62545,27 @@
         <v>0</v>
       </c>
       <c r="G1897">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1897">
         <v>0</v>
       </c>
       <c r="I1897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1898" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1898" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B1898">
         <v>1987</v>
       </c>
       <c r="C1898" t="s">
-        <v>434</v>
+        <v>296</v>
       </c>
       <c r="D1898" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E1898">
         <v>1</v>
@@ -62536,62 +62574,65 @@
         <v>0</v>
       </c>
       <c r="G1898">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1898">
         <v>0</v>
       </c>
       <c r="I1898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1899" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B1899">
         <v>1987</v>
       </c>
       <c r="C1899" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D1899" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E1899">
         <v>0</v>
       </c>
       <c r="G1899">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1899">
         <v>0</v>
       </c>
       <c r="I1899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B1900">
         <v>1987</v>
       </c>
       <c r="C1900" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="D1900" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E1900">
+        <v>1</v>
+      </c>
+      <c r="F1900">
         <v>0</v>
       </c>
       <c r="G1900">
         <v>1</v>
       </c>
       <c r="H1900">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1900">
         <v>0</v>
@@ -62599,25 +62640,28 @@
     </row>
     <row r="1901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1901" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B1901">
         <v>1987</v>
       </c>
       <c r="C1901" t="s">
-        <v>322</v>
+        <v>479</v>
       </c>
       <c r="D1901" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E1901">
+        <v>1</v>
+      </c>
+      <c r="F1901">
         <v>0</v>
       </c>
       <c r="G1901">
         <v>1</v>
       </c>
       <c r="H1901">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1901">
         <v>0</v>
@@ -62625,25 +62669,28 @@
     </row>
     <row r="1902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1902" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B1902">
         <v>1987</v>
       </c>
       <c r="C1902" t="s">
-        <v>486</v>
+        <v>322</v>
       </c>
       <c r="D1902" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E1902">
+        <v>1</v>
+      </c>
+      <c r="F1902">
         <v>0</v>
       </c>
       <c r="G1902">
         <v>1</v>
       </c>
       <c r="H1902">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1902">
         <v>0</v>
@@ -62651,7 +62698,7 @@
     </row>
     <row r="1903" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1903" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1903">
         <v>1987</v>
@@ -62680,62 +62727,62 @@
     </row>
     <row r="1904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1904" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1904">
         <v>1987</v>
       </c>
       <c r="C1904" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="D1904" t="s">
         <v>131</v>
       </c>
       <c r="E1904">
+        <v>1</v>
+      </c>
+      <c r="F1904">
         <v>0</v>
       </c>
       <c r="G1904">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1904">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1905" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1905">
         <v>1987</v>
       </c>
       <c r="C1905" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="D1905" t="s">
         <v>131</v>
       </c>
       <c r="E1905">
-        <v>1</v>
-      </c>
-      <c r="F1905">
         <v>0</v>
       </c>
       <c r="G1905">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1905">
         <v>0</v>
       </c>
       <c r="I1905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1906" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1906">
         <v>1987</v>
@@ -62761,13 +62808,13 @@
     </row>
     <row r="1907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1907" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1907">
         <v>1987</v>
       </c>
       <c r="C1907" t="s">
-        <v>478</v>
+        <v>322</v>
       </c>
       <c r="D1907" t="s">
         <v>131</v>
@@ -62787,13 +62834,13 @@
     </row>
     <row r="1908" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1908" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1908">
         <v>1987</v>
       </c>
       <c r="C1908" t="s">
-        <v>322</v>
+        <v>486</v>
       </c>
       <c r="D1908" t="s">
         <v>131</v>
@@ -62813,7 +62860,7 @@
     </row>
     <row r="1909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1909" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="B1909">
         <v>1987</v>
@@ -62828,27 +62875,27 @@
         <v>1</v>
       </c>
       <c r="F1909">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1909">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1909">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1910" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="B1910">
         <v>1987</v>
       </c>
       <c r="C1910" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D1910" t="s">
         <v>131</v>
@@ -62860,7 +62907,7 @@
         <v>1</v>
       </c>
       <c r="H1910">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1910">
         <v>0</v>
@@ -62868,68 +62915,68 @@
     </row>
     <row r="1911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1911" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="B1911">
         <v>1987</v>
       </c>
       <c r="C1911" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="D1911" t="s">
         <v>131</v>
       </c>
       <c r="E1911">
+        <v>1</v>
+      </c>
+      <c r="F1911">
         <v>0</v>
       </c>
       <c r="G1911">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1911">
         <v>0</v>
       </c>
       <c r="I1911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1912" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1912" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="B1912">
         <v>1987</v>
       </c>
       <c r="C1912" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="D1912" t="s">
         <v>131</v>
       </c>
       <c r="E1912">
-        <v>1</v>
-      </c>
-      <c r="F1912">
         <v>0</v>
       </c>
       <c r="G1912">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1912">
         <v>0</v>
       </c>
       <c r="I1912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1913" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1913" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="B1913">
         <v>1987</v>
       </c>
       <c r="C1913" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D1913" t="s">
         <v>131</v>
@@ -62949,7 +62996,7 @@
     </row>
     <row r="1914" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1914" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="B1914">
         <v>1987</v>
@@ -62975,16 +63022,16 @@
     </row>
     <row r="1915" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1915" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1915">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C1915" t="s">
         <v>439</v>
       </c>
       <c r="D1915" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E1915">
         <v>1</v>
@@ -62996,7 +63043,7 @@
         <v>1</v>
       </c>
       <c r="H1915">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1915">
         <v>0</v>
@@ -63004,22 +63051,19 @@
     </row>
     <row r="1916" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1916" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1916">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C1916" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="D1916" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E1916">
-        <v>1</v>
-      </c>
-      <c r="F1916">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1916">
         <v>1</v>
@@ -63033,22 +63077,19 @@
     </row>
     <row r="1917" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1917" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1917">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C1917" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D1917" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E1917">
-        <v>1</v>
-      </c>
-      <c r="F1917">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1917">
         <v>1</v>
@@ -63062,42 +63103,45 @@
     </row>
     <row r="1918" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1918" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1918">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C1918" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="D1918" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E1918">
+        <v>1</v>
+      </c>
+      <c r="F1918">
         <v>0</v>
       </c>
       <c r="G1918">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1918">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1919" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1919" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1919">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C1919" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D1919" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E1919">
         <v>0</v>
@@ -63106,7 +63150,7 @@
         <v>1</v>
       </c>
       <c r="H1919">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1919">
         <v>0</v>
@@ -63114,28 +63158,25 @@
     </row>
     <row r="1920" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1920" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1920">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C1920" t="s">
         <v>322</v>
       </c>
       <c r="D1920" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E1920">
-        <v>1</v>
-      </c>
-      <c r="F1920">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1920">
         <v>1</v>
       </c>
       <c r="H1920">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1920">
         <v>0</v>
@@ -63149,7 +63190,7 @@
         <v>1986</v>
       </c>
       <c r="C1921" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D1921" t="s">
         <v>64</v>
@@ -63158,36 +63199,36 @@
         <v>1</v>
       </c>
       <c r="F1921">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1921">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1921">
         <v>0</v>
       </c>
       <c r="I1921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1922" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B1922">
         <v>1986</v>
       </c>
       <c r="C1922" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="D1922" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E1922">
         <v>1</v>
       </c>
       <c r="F1922">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1922">
         <v>1</v>
@@ -63201,22 +63242,22 @@
     </row>
     <row r="1923" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1923" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B1923">
         <v>1986</v>
       </c>
       <c r="C1923" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="D1923" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E1923">
         <v>1</v>
       </c>
       <c r="F1923">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1923">
         <v>1</v>
@@ -63230,28 +63271,25 @@
     </row>
     <row r="1924" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1924" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B1924">
         <v>1986</v>
       </c>
       <c r="C1924" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="D1924" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E1924">
-        <v>1</v>
-      </c>
-      <c r="F1924">
         <v>0</v>
       </c>
       <c r="G1924">
         <v>1</v>
       </c>
       <c r="H1924">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1924">
         <v>0</v>
@@ -63259,28 +63297,25 @@
     </row>
     <row r="1925" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1925" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B1925">
         <v>1986</v>
       </c>
       <c r="C1925" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="D1925" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E1925">
-        <v>1</v>
-      </c>
-      <c r="F1925">
         <v>0</v>
       </c>
       <c r="G1925">
         <v>1</v>
       </c>
       <c r="H1925">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1925">
         <v>0</v>
@@ -63288,28 +63323,28 @@
     </row>
     <row r="1926" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1926" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B1926">
         <v>1986</v>
       </c>
       <c r="C1926" t="s">
-        <v>479</v>
+        <v>322</v>
       </c>
       <c r="D1926" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E1926">
         <v>1</v>
       </c>
       <c r="F1926">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1926">
         <v>1</v>
       </c>
       <c r="H1926">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1926">
         <v>0</v>
@@ -63317,16 +63352,16 @@
     </row>
     <row r="1927" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1927" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B1927">
         <v>1986</v>
       </c>
       <c r="C1927" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="D1927" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E1927">
         <v>1</v>
@@ -63335,13 +63370,13 @@
         <v>0</v>
       </c>
       <c r="G1927">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1927">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1928" spans="1:9" x14ac:dyDescent="0.2">
@@ -63352,7 +63387,7 @@
         <v>1986</v>
       </c>
       <c r="C1928" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="D1928" t="s">
         <v>28</v>
@@ -63367,7 +63402,7 @@
         <v>1</v>
       </c>
       <c r="H1928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1928">
         <v>0</v>
@@ -63375,16 +63410,16 @@
     </row>
     <row r="1929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1929" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B1929">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1929" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="D1929" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1929">
         <v>1</v>
@@ -63404,16 +63439,16 @@
     </row>
     <row r="1930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1930" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B1930">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1930" t="s">
         <v>296</v>
       </c>
       <c r="D1930" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1930">
         <v>1</v>
@@ -63433,16 +63468,16 @@
     </row>
     <row r="1931" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1931" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B1931">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1931" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="D1931" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1931">
         <v>1</v>
@@ -63462,16 +63497,16 @@
     </row>
     <row r="1932" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1932" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B1932">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1932" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="D1932" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1932">
         <v>1</v>
@@ -63491,16 +63526,16 @@
     </row>
     <row r="1933" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1933" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B1933">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1933" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="D1933" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1933">
         <v>1</v>
@@ -63512,7 +63547,7 @@
         <v>1</v>
       </c>
       <c r="H1933">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1933">
         <v>0</v>
@@ -63520,16 +63555,16 @@
     </row>
     <row r="1934" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1934" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B1934">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1934" t="s">
         <v>486</v>
       </c>
       <c r="D1934" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1934">
         <v>1</v>
@@ -63555,7 +63590,7 @@
         <v>1985</v>
       </c>
       <c r="C1935" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D1935" t="s">
         <v>24</v>
@@ -63570,7 +63605,7 @@
         <v>1</v>
       </c>
       <c r="H1935">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1935">
         <v>0</v>
@@ -63578,16 +63613,16 @@
     </row>
     <row r="1936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1936" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1936">
         <v>1985</v>
       </c>
       <c r="C1936" t="s">
-        <v>439</v>
+        <v>296</v>
       </c>
       <c r="D1936" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E1936">
         <v>1</v>
@@ -63607,7 +63642,7 @@
     </row>
     <row r="1937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1937" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1937">
         <v>1985</v>
@@ -63616,7 +63651,7 @@
         <v>478</v>
       </c>
       <c r="D1937" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E1937">
         <v>1</v>
@@ -63636,16 +63671,16 @@
     </row>
     <row r="1938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1938" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1938">
         <v>1985</v>
       </c>
       <c r="C1938" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="D1938" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E1938">
         <v>1</v>
@@ -63665,16 +63700,16 @@
     </row>
     <row r="1939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1939" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1939">
         <v>1985</v>
       </c>
       <c r="C1939" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="D1939" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E1939">
         <v>1</v>
@@ -63694,16 +63729,16 @@
     </row>
     <row r="1940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1940" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1940">
         <v>1985</v>
       </c>
       <c r="C1940" t="s">
-        <v>296</v>
+        <v>486</v>
       </c>
       <c r="D1940" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E1940">
         <v>1</v>
@@ -63715,7 +63750,7 @@
         <v>1</v>
       </c>
       <c r="H1940">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1940">
         <v>0</v>
@@ -63723,7 +63758,7 @@
     </row>
     <row r="1941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1941" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1941">
         <v>1985</v>
@@ -63732,7 +63767,7 @@
         <v>434</v>
       </c>
       <c r="D1941" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E1941">
         <v>1</v>
@@ -63752,7 +63787,7 @@
     </row>
     <row r="1942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1942" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B1942">
         <v>1985</v>
@@ -63761,7 +63796,7 @@
         <v>439</v>
       </c>
       <c r="D1942" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E1942">
         <v>1</v>
@@ -63781,16 +63816,16 @@
     </row>
     <row r="1943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1943" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B1943">
         <v>1985</v>
       </c>
       <c r="C1943" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="D1943" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E1943">
         <v>1</v>
@@ -63810,16 +63845,16 @@
     </row>
     <row r="1944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1944" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B1944">
         <v>1985</v>
       </c>
       <c r="C1944" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="D1944" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E1944">
         <v>1</v>
@@ -63839,16 +63874,16 @@
     </row>
     <row r="1945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1945" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B1945">
         <v>1985</v>
       </c>
       <c r="C1945" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="D1945" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E1945">
         <v>1</v>
@@ -63860,7 +63895,7 @@
         <v>1</v>
       </c>
       <c r="H1945">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1945">
         <v>0</v>
@@ -63868,16 +63903,16 @@
     </row>
     <row r="1946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1946" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B1946">
         <v>1985</v>
       </c>
       <c r="C1946" t="s">
-        <v>501</v>
+        <v>296</v>
       </c>
       <c r="D1946" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E1946">
         <v>1</v>
@@ -63889,7 +63924,7 @@
         <v>1</v>
       </c>
       <c r="H1946">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1946">
         <v>0</v>
@@ -63897,16 +63932,16 @@
     </row>
     <row r="1947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1947" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B1947">
         <v>1985</v>
       </c>
       <c r="C1947" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="D1947" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E1947">
         <v>1</v>
@@ -63926,16 +63961,16 @@
     </row>
     <row r="1948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1948" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1948">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C1948" t="s">
         <v>439</v>
       </c>
       <c r="D1948" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E1948">
         <v>1</v>
@@ -63955,16 +63990,16 @@
     </row>
     <row r="1949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1949" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1949">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C1949" t="s">
-        <v>545</v>
+        <v>296</v>
       </c>
       <c r="D1949" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E1949">
         <v>1</v>
@@ -63984,16 +64019,16 @@
     </row>
     <row r="1950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1950" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1950">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C1950" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="D1950" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E1950">
         <v>1</v>
@@ -64013,16 +64048,16 @@
     </row>
     <row r="1951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1951" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1951">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C1951" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D1951" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E1951">
         <v>1</v>
@@ -64034,7 +64069,7 @@
         <v>1</v>
       </c>
       <c r="H1951">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1951">
         <v>0</v>
@@ -64042,16 +64077,16 @@
     </row>
     <row r="1952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1952" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1952">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C1952" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D1952" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E1952">
         <v>1</v>
@@ -64063,7 +64098,7 @@
         <v>1</v>
       </c>
       <c r="H1952">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1952">
         <v>0</v>
@@ -64071,16 +64106,16 @@
     </row>
     <row r="1953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1953" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1953">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C1953" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="D1953" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E1953">
         <v>1</v>
@@ -64092,7 +64127,7 @@
         <v>1</v>
       </c>
       <c r="H1953">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1953">
         <v>0</v>
@@ -64106,7 +64141,7 @@
         <v>1984</v>
       </c>
       <c r="C1954" t="s">
-        <v>296</v>
+        <v>439</v>
       </c>
       <c r="D1954" t="s">
         <v>126</v>
@@ -64135,7 +64170,7 @@
         <v>1984</v>
       </c>
       <c r="C1955" t="s">
-        <v>434</v>
+        <v>545</v>
       </c>
       <c r="D1955" t="s">
         <v>126</v>
@@ -64158,16 +64193,16 @@
     </row>
     <row r="1956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1956" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1956">
         <v>1984</v>
       </c>
       <c r="C1956" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="D1956" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E1956">
         <v>1</v>
@@ -64187,16 +64222,16 @@
     </row>
     <row r="1957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1957" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1957">
         <v>1984</v>
       </c>
       <c r="C1957" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="D1957" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E1957">
         <v>1</v>
@@ -64216,16 +64251,16 @@
     </row>
     <row r="1958" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1958" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1958">
         <v>1984</v>
       </c>
       <c r="C1958" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D1958" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E1958">
         <v>1</v>
@@ -64245,16 +64280,16 @@
     </row>
     <row r="1959" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1959" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1959">
         <v>1984</v>
       </c>
       <c r="C1959" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="D1959" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E1959">
         <v>1</v>
@@ -64274,16 +64309,16 @@
     </row>
     <row r="1960" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1960" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1960">
         <v>1984</v>
       </c>
       <c r="C1960" t="s">
-        <v>486</v>
+        <v>296</v>
       </c>
       <c r="D1960" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E1960">
         <v>1</v>
@@ -64303,16 +64338,16 @@
     </row>
     <row r="1961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1961" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1961">
         <v>1984</v>
       </c>
       <c r="C1961" t="s">
-        <v>296</v>
+        <v>434</v>
       </c>
       <c r="D1961" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E1961">
         <v>1</v>
@@ -64338,7 +64373,7 @@
         <v>1984</v>
       </c>
       <c r="C1962" t="s">
-        <v>434</v>
+        <v>545</v>
       </c>
       <c r="D1962" t="s">
         <v>25</v>
@@ -64361,18 +64396,21 @@
     </row>
     <row r="1963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1963" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1963">
         <v>1984</v>
       </c>
       <c r="C1963" t="s">
-        <v>545</v>
+        <v>439</v>
       </c>
       <c r="D1963" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="E1963">
+        <v>1</v>
+      </c>
+      <c r="F1963">
         <v>0</v>
       </c>
       <c r="G1963">
@@ -64387,18 +64425,21 @@
     </row>
     <row r="1964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1964" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1964">
         <v>1984</v>
       </c>
       <c r="C1964" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="D1964" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="E1964">
+        <v>1</v>
+      </c>
+      <c r="F1964">
         <v>0</v>
       </c>
       <c r="G1964">
@@ -64413,18 +64454,21 @@
     </row>
     <row r="1965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1965" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1965">
         <v>1984</v>
       </c>
       <c r="C1965" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="D1965" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="E1965">
+        <v>1</v>
+      </c>
+      <c r="F1965">
         <v>0</v>
       </c>
       <c r="G1965">
@@ -64439,18 +64483,21 @@
     </row>
     <row r="1966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1966" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1966">
         <v>1984</v>
       </c>
       <c r="C1966" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D1966" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="E1966">
+        <v>1</v>
+      </c>
+      <c r="F1966">
         <v>0</v>
       </c>
       <c r="G1966">
@@ -64465,18 +64512,21 @@
     </row>
     <row r="1967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1967" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1967">
         <v>1984</v>
       </c>
       <c r="C1967" t="s">
-        <v>486</v>
+        <v>296</v>
       </c>
       <c r="D1967" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="E1967">
+        <v>1</v>
+      </c>
+      <c r="F1967">
         <v>0</v>
       </c>
       <c r="G1967">
@@ -64491,18 +64541,21 @@
     </row>
     <row r="1968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1968" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1968">
         <v>1984</v>
       </c>
       <c r="C1968" t="s">
-        <v>296</v>
+        <v>434</v>
       </c>
       <c r="D1968" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="E1968">
+        <v>1</v>
+      </c>
+      <c r="F1968">
         <v>0</v>
       </c>
       <c r="G1968">
@@ -64523,7 +64576,7 @@
         <v>1984</v>
       </c>
       <c r="C1969" t="s">
-        <v>434</v>
+        <v>545</v>
       </c>
       <c r="D1969" t="s">
         <v>152</v>
@@ -64538,6 +64591,162 @@
         <v>0</v>
       </c>
       <c r="I1969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1970" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1970">
+        <v>1984</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1970">
+        <v>0</v>
+      </c>
+      <c r="G1970">
+        <v>1</v>
+      </c>
+      <c r="H1970">
+        <v>0</v>
+      </c>
+      <c r="I1970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1971" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1971">
+        <v>1984</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1971">
+        <v>0</v>
+      </c>
+      <c r="G1971">
+        <v>1</v>
+      </c>
+      <c r="H1971">
+        <v>0</v>
+      </c>
+      <c r="I1971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1972" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1972">
+        <v>1984</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1972">
+        <v>0</v>
+      </c>
+      <c r="G1972">
+        <v>1</v>
+      </c>
+      <c r="H1972">
+        <v>0</v>
+      </c>
+      <c r="I1972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1973" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1973">
+        <v>1984</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1973">
+        <v>0</v>
+      </c>
+      <c r="G1973">
+        <v>1</v>
+      </c>
+      <c r="H1973">
+        <v>0</v>
+      </c>
+      <c r="I1973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1974" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1974">
+        <v>1984</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1974">
+        <v>0</v>
+      </c>
+      <c r="G1974">
+        <v>1</v>
+      </c>
+      <c r="H1974">
+        <v>0</v>
+      </c>
+      <c r="I1974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1975" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1975">
+        <v>1984</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1975">
+        <v>0</v>
+      </c>
+      <c r="G1975">
+        <v>1</v>
+      </c>
+      <c r="H1975">
+        <v>0</v>
+      </c>
+      <c r="I1975">
         <v>0</v>
       </c>
     </row>

--- a/jr_data.xlsx
+++ b/jr_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanclarke/Desktop/papers/irwintoy/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9FBF6E-1561-5B42-83E2-81473BBF818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BDBA11-7214-4F40-9E51-ADB61E120218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23880" windowHeight="16940" xr2:uid="{E47A3FDC-7AD1-4511-9448-90402246D381}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23880" windowHeight="16940" activeTab="1" xr2:uid="{E47A3FDC-7AD1-4511-9448-90402246D381}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -2349,9 +2349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC629BE-A775-4F8E-9F9C-1908E990AD15}">
   <dimension ref="A1:J249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    <sheetView zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5828,7 +5828,7 @@
         <v>2001</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="D109" t="s">
         <v>282</v>
@@ -10342,9 +10342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D51641C-C0B7-473D-8C49-9727ECB88893}">
   <dimension ref="A1:I1982"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I396" sqref="I396"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A893" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D906" sqref="D906:D914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35362,7 +35362,7 @@
         <v>67</v>
       </c>
       <c r="D906" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E906">
         <v>0</v>
@@ -35388,7 +35388,7 @@
         <v>245</v>
       </c>
       <c r="D907" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E907">
         <v>1</v>
@@ -35417,7 +35417,7 @@
         <v>230</v>
       </c>
       <c r="D908" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E908">
         <v>0</v>
@@ -35443,7 +35443,7 @@
         <v>219</v>
       </c>
       <c r="D909" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E909">
         <v>0</v>
@@ -35469,7 +35469,7 @@
         <v>200</v>
       </c>
       <c r="D910" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E910">
         <v>1</v>
@@ -35498,7 +35498,7 @@
         <v>172</v>
       </c>
       <c r="D911" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E911">
         <v>0</v>
@@ -35524,7 +35524,7 @@
         <v>231</v>
       </c>
       <c r="D912" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E912">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>120</v>
       </c>
       <c r="D913" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E913">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>557</v>
       </c>
       <c r="D914" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E914">
         <v>1</v>

--- a/jr_data.xlsx
+++ b/jr_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanclarke/Dropbox/papers/irwintoy/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A2DC37-358E-0849-8AA8-DC7BD40FA230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA997B-AFC4-E844-A4F0-7192F89B2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23880" windowHeight="16940" activeTab="1" xr2:uid="{E47A3FDC-7AD1-4511-9448-90402246D381}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23880" windowHeight="16940" xr2:uid="{E47A3FDC-7AD1-4511-9448-90402246D381}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
     <sheet name="Justice" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7255" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7256" uniqueCount="647">
   <si>
     <t>case</t>
   </si>
@@ -2062,9 +2063,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2102,7 +2103,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2208,7 +2209,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2350,7 +2351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2360,9 +2361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC629BE-A775-4F8E-9F9C-1908E990AD15}">
   <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3159,6 +3160,9 @@
       <c r="D25" t="s">
         <v>81</v>
       </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -10417,7 +10421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D51641C-C0B7-473D-8C49-9727ECB88893}">
   <dimension ref="A1:I1997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1793" sqref="C1793"/>
     </sheetView>
